--- a/class 명세/Camp.xlsx
+++ b/class 명세/Camp.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="420" windowWidth="23256" windowHeight="9456"/>
+    <workbookView xWindow="480" yWindow="420" windowWidth="23250" windowHeight="9450"/>
   </bookViews>
   <sheets>
     <sheet name="controller" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="dao" sheetId="3" r:id="rId3"/>
     <sheet name="model" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -352,7 +352,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -502,21 +502,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -600,7 +628,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -635,7 +662,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -811,23 +837,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="32.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:6" ht="20.25">
+      <c r="A1" s="17" t="s">
         <v>82</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -992,22 +1018,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21">
+    <row r="1" spans="1:6" ht="20.25">
       <c r="A1" s="6" t="s">
         <v>31</v>
       </c>
@@ -1106,23 +1132,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="105" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21">
+    <row r="1" spans="1:5" ht="20.25">
       <c r="A1" s="6" t="s">
         <v>35</v>
       </c>
@@ -1146,7 +1172,7 @@
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="18" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1160,7 +1186,7 @@
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
@@ -1172,7 +1198,7 @@
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
@@ -1218,28 +1244,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:5" ht="20.25">
+      <c r="A1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
